--- a/entrega 2 - simio Basemodel/Archivos Auxiliares/dias_aserradero_texto.xlsx
+++ b/entrega 2 - simio Basemodel/Archivos Auxiliares/dias_aserradero_texto.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\simio\entrega 2 - simio model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\simio\entrega 2 - simio Basemodel\Archivos Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2580"/>
   </bookViews>
   <sheets>
     <sheet name="mierda" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="107">
   <si>
     <t>Martes</t>
   </si>
@@ -40,6 +40,306 @@
   </si>
   <si>
     <t>Lunes</t>
+  </si>
+  <si>
+    <t>Aserradero 1</t>
+  </si>
+  <si>
+    <t>Aserradero 2</t>
+  </si>
+  <si>
+    <t>Aserradero 3</t>
+  </si>
+  <si>
+    <t>Aserradero 4</t>
+  </si>
+  <si>
+    <t>Aserradero 5</t>
+  </si>
+  <si>
+    <t>Aserradero 6</t>
+  </si>
+  <si>
+    <t>Aserradero 7</t>
+  </si>
+  <si>
+    <t>Aserradero 8</t>
+  </si>
+  <si>
+    <t>Aserradero 9</t>
+  </si>
+  <si>
+    <t>Aserradero 10</t>
+  </si>
+  <si>
+    <t>Aserradero 11</t>
+  </si>
+  <si>
+    <t>Aserradero 12</t>
+  </si>
+  <si>
+    <t>Aserradero 13</t>
+  </si>
+  <si>
+    <t>Aserradero 14</t>
+  </si>
+  <si>
+    <t>Aserradero 15</t>
+  </si>
+  <si>
+    <t>Aserradero 16</t>
+  </si>
+  <si>
+    <t>Aserradero 17</t>
+  </si>
+  <si>
+    <t>Aserradero 18</t>
+  </si>
+  <si>
+    <t>Aserradero 19</t>
+  </si>
+  <si>
+    <t>Aserradero 20</t>
+  </si>
+  <si>
+    <t>Aserradero 21</t>
+  </si>
+  <si>
+    <t>Aserradero 22</t>
+  </si>
+  <si>
+    <t>Aserradero 23</t>
+  </si>
+  <si>
+    <t>Aserradero 24</t>
+  </si>
+  <si>
+    <t>Aserradero 25</t>
+  </si>
+  <si>
+    <t>Aserradero 26</t>
+  </si>
+  <si>
+    <t>Aserradero 27</t>
+  </si>
+  <si>
+    <t>Aserradero 28</t>
+  </si>
+  <si>
+    <t>Aserradero 29</t>
+  </si>
+  <si>
+    <t>Aserradero 30</t>
+  </si>
+  <si>
+    <t>Aserradero 31</t>
+  </si>
+  <si>
+    <t>Aserradero 32</t>
+  </si>
+  <si>
+    <t>Aserradero 33</t>
+  </si>
+  <si>
+    <t>Aserradero 34</t>
+  </si>
+  <si>
+    <t>Aserradero 35</t>
+  </si>
+  <si>
+    <t>Aserradero 36</t>
+  </si>
+  <si>
+    <t>Aserradero 37</t>
+  </si>
+  <si>
+    <t>Aserradero 38</t>
+  </si>
+  <si>
+    <t>Aserradero 39</t>
+  </si>
+  <si>
+    <t>Aserradero 40</t>
+  </si>
+  <si>
+    <t>Aserradero 41</t>
+  </si>
+  <si>
+    <t>Aserradero 42</t>
+  </si>
+  <si>
+    <t>Aserradero 43</t>
+  </si>
+  <si>
+    <t>Aserradero 44</t>
+  </si>
+  <si>
+    <t>Aserradero 45</t>
+  </si>
+  <si>
+    <t>Aserradero 46</t>
+  </si>
+  <si>
+    <t>Aserradero 47</t>
+  </si>
+  <si>
+    <t>Aserradero 48</t>
+  </si>
+  <si>
+    <t>Aserradero 49</t>
+  </si>
+  <si>
+    <t>Aserradero 50</t>
+  </si>
+  <si>
+    <t>Aserradero 51</t>
+  </si>
+  <si>
+    <t>Aserradero 52</t>
+  </si>
+  <si>
+    <t>Aserradero 53</t>
+  </si>
+  <si>
+    <t>Aserradero 54</t>
+  </si>
+  <si>
+    <t>Aserradero 55</t>
+  </si>
+  <si>
+    <t>Aserradero 56</t>
+  </si>
+  <si>
+    <t>Aserradero 57</t>
+  </si>
+  <si>
+    <t>Aserradero 58</t>
+  </si>
+  <si>
+    <t>Aserradero 59</t>
+  </si>
+  <si>
+    <t>Aserradero 60</t>
+  </si>
+  <si>
+    <t>Aserradero 61</t>
+  </si>
+  <si>
+    <t>Aserradero 62</t>
+  </si>
+  <si>
+    <t>Aserradero 63</t>
+  </si>
+  <si>
+    <t>Aserradero 64</t>
+  </si>
+  <si>
+    <t>Aserradero 65</t>
+  </si>
+  <si>
+    <t>Aserradero 66</t>
+  </si>
+  <si>
+    <t>Aserradero 67</t>
+  </si>
+  <si>
+    <t>Aserradero 68</t>
+  </si>
+  <si>
+    <t>Aserradero 69</t>
+  </si>
+  <si>
+    <t>Aserradero 70</t>
+  </si>
+  <si>
+    <t>Aserradero 71</t>
+  </si>
+  <si>
+    <t>Aserradero 72</t>
+  </si>
+  <si>
+    <t>Aserradero 73</t>
+  </si>
+  <si>
+    <t>Aserradero 74</t>
+  </si>
+  <si>
+    <t>Aserradero 75</t>
+  </si>
+  <si>
+    <t>Aserradero 76</t>
+  </si>
+  <si>
+    <t>Aserradero 77</t>
+  </si>
+  <si>
+    <t>Aserradero 78</t>
+  </si>
+  <si>
+    <t>Aserradero 79</t>
+  </si>
+  <si>
+    <t>Aserradero 80</t>
+  </si>
+  <si>
+    <t>Aserradero 81</t>
+  </si>
+  <si>
+    <t>Aserradero 82</t>
+  </si>
+  <si>
+    <t>Aserradero 83</t>
+  </si>
+  <si>
+    <t>Aserradero 84</t>
+  </si>
+  <si>
+    <t>Aserradero 85</t>
+  </si>
+  <si>
+    <t>Aserradero 86</t>
+  </si>
+  <si>
+    <t>Aserradero 87</t>
+  </si>
+  <si>
+    <t>Aserradero 88</t>
+  </si>
+  <si>
+    <t>Aserradero 89</t>
+  </si>
+  <si>
+    <t>Aserradero 90</t>
+  </si>
+  <si>
+    <t>Aserradero 91</t>
+  </si>
+  <si>
+    <t>Aserradero 92</t>
+  </si>
+  <si>
+    <t>Aserradero 93</t>
+  </si>
+  <si>
+    <t>Aserradero 94</t>
+  </si>
+  <si>
+    <t>Aserradero 95</t>
+  </si>
+  <si>
+    <t>Aserradero 96</t>
+  </si>
+  <si>
+    <t>Aserradero 97</t>
+  </si>
+  <si>
+    <t>Aserradero 98</t>
+  </si>
+  <si>
+    <t>Aserradero 99</t>
+  </si>
+  <si>
+    <t>Aserradero 100</t>
   </si>
 </sst>
 </file>
@@ -363,7 +663,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -478,6 +778,79 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -523,8 +896,22 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -880,71 +1267,242 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:N100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:N40"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="14" width="14.28515625" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E4" s="5"/>
+      <c r="F4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" s="5"/>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -952,80 +1510,330 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E11" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E16" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="N16" s="5"/>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>2</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>2</v>
       </c>
       <c r="B19" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E19" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>2</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E20" s="5"/>
+      <c r="F20" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -1033,31 +1841,113 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>2</v>
       </c>
       <c r="B22" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>5</v>
       </c>
       <c r="B23" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E23" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>0</v>
       </c>
       <c r="B24" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -1065,54 +1955,214 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E26" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>4</v>
       </c>
       <c r="B27" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E27" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>4</v>
       </c>
       <c r="B28" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E28" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+    </row>
+    <row r="29" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>5</v>
       </c>
       <c r="B30" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E30" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="N30" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>4</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E31" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E32" s="5"/>
+      <c r="F32" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N32" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>1</v>
       </c>
@@ -1120,25 +2170,107 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E34" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="N34" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E35" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="N35" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>6</v>
       </c>
       <c r="B36" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E36" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M36" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N36" s="5"/>
+    </row>
+    <row r="37" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -1146,33 +2278,109 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>2</v>
       </c>
       <c r="B38" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E38" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="N38" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>2</v>
       </c>
       <c r="B39" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E39" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L39" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M39" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="N39" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N40" s="5"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>6</v>
       </c>
@@ -1180,17 +2388,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -1198,7 +2406,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -1206,12 +2414,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>2</v>
       </c>
